--- a/data/trans_bre/P23_R2-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P23_R2-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-20,55; -4,85</t>
+          <t>-20,69; -4,39</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-14,08; 2,82</t>
+          <t>-13,2; 3,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-18,01; -2,14</t>
+          <t>-18,66; -2,89</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-12,38; 2,46</t>
+          <t>-12,97; 2,02</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-49,86; -14,51</t>
+          <t>-50,02; -12,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-33,12; 7,95</t>
+          <t>-31,21; 9,59</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-45,0; -6,87</t>
+          <t>-45,81; -8,49</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-37,82; 10,66</t>
+          <t>-39,66; 8,44</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-19,81; -7,72</t>
+          <t>-19,6; -7,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-18,35; -5,68</t>
+          <t>-17,43; -5,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-20,34; -9,01</t>
+          <t>-20,6; -8,37</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-12,66; -0,87</t>
+          <t>-12,4; -0,95</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-49,81; -23,06</t>
+          <t>-50,54; -23,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-41,77; -15,66</t>
+          <t>-41,12; -14,04</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-45,54; -22,55</t>
+          <t>-45,79; -21,5</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-41,86; -3,18</t>
+          <t>-41,22; -4,21</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-23,03; -7,95</t>
+          <t>-21,98; -7,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-20,68; -5,57</t>
+          <t>-19,81; -5,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,13; 1,3</t>
+          <t>-12,35; 0,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-10,86; 0,56</t>
+          <t>-10,37; 0,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-48,97; -20,37</t>
+          <t>-47,22; -20,11</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-49,07; -16,42</t>
+          <t>-47,55; -14,96</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-39,43; 5,2</t>
+          <t>-36,73; 3,67</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-40,04; 2,09</t>
+          <t>-39,61; 3,62</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-25,13; -11,95</t>
+          <t>-25,24; -11,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-11,72; 2,56</t>
+          <t>-11,74; 1,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-16,15; -1,82</t>
+          <t>-16,01; -2,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-19,03; -1,21</t>
+          <t>-19,15; -2,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-52,2; -28,78</t>
+          <t>-52,11; -27,87</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-33,05; 9,82</t>
+          <t>-33,62; 5,64</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-39,3; -4,54</t>
+          <t>-39,76; -6,22</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-64,7; -6,16</t>
+          <t>-64,96; -10,65</t>
         </is>
       </c>
     </row>
@@ -1068,49 +1068,49 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-20,8; -1,93</t>
+          <t>-20,34; -2,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-21,01; -2,51</t>
+          <t>-21,52; -2,25</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-23,1; -4,84</t>
+          <t>-22,82; -5,46</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,51; 0,98</t>
+          <t>-10,21; 1,04</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-47,25; -4,84</t>
+          <t>-47,24; -6,05</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-45,0; -6,86</t>
+          <t>-45,65; -5,48</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-51,31; -13,53</t>
+          <t>-50,93; -14,45</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-46,15; 6,24</t>
+          <t>-45,45; 7,44</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-31,01; -14,79</t>
+          <t>-30,13; -15,09</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-14,55; 0,29</t>
+          <t>-14,01; 1,27</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-14,75; 1,54</t>
+          <t>-14,3; 1,1</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-14,86; -2,5</t>
+          <t>-14,73; -2,94</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-62,18; -36,15</t>
+          <t>-61,59; -35,44</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-41,67; 2,35</t>
+          <t>-40,17; 5,67</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-38,89; 5,57</t>
+          <t>-39,07; 3,73</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-47,78; -10,83</t>
+          <t>-48,52; -12,39</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-16,91; -5,66</t>
+          <t>-17,4; -6,82</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-16,53; -5,74</t>
+          <t>-16,56; -6,38</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,91; -0,07</t>
+          <t>-10,25; 0,11</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-20,97; -2,15</t>
+          <t>-21,28; -1,63</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-42,45; -17,33</t>
+          <t>-42,95; -19,51</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-39,82; -15,41</t>
+          <t>-39,69; -17,28</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-30,09; 0,61</t>
+          <t>-31,45; 0,32</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-68,22; -8,94</t>
+          <t>-74,08; -6,93</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-21,55; -11,97</t>
+          <t>-21,84; -12,06</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-15,84; -5,77</t>
+          <t>-15,24; -5,73</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-11,54; -1,86</t>
+          <t>-11,03; -1,93</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-11,75; 7,52</t>
+          <t>-11,9; 8,82</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-51,53; -32,52</t>
+          <t>-52,07; -32,65</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-40,66; -17,19</t>
+          <t>-39,91; -17,28</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-32,63; -5,92</t>
+          <t>-32,39; -6,6</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-42,32; 70,39</t>
+          <t>-43,08; 86,07</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-17,47; -13,24</t>
+          <t>-17,45; -12,85</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-12,24; -7,58</t>
+          <t>-12,09; -7,45</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-10,92; -6,44</t>
+          <t>-10,82; -6,3</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-9,79; -1,03</t>
+          <t>-9,84; -1,16</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-42,89; -34,1</t>
+          <t>-42,77; -33,23</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-32,26; -21,27</t>
+          <t>-31,88; -21,0</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-30,31; -19,01</t>
+          <t>-29,76; -18,77</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-38,85; -8,3</t>
+          <t>-38,09; -8,97</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P23_R2-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P23_R2-Provincia-trans_bre.xlsx
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que fuma tabaco diariamente (2007/2011/2016/2023)</t>
+          <t>Población que fuma tabaco actualmente, de forma diaria o puntual</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
